--- a/Full BOM - DigiKey.xlsx
+++ b/Full BOM - DigiKey.xlsx
@@ -328,7 +328,7 @@
         </is>
       </c>
       <c t="n" r="K2">
-        <v>307436</v>
+        <v>307398</v>
       </c>
       <c t="inlineStr" r="L2">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c t="n" r="K5">
-        <v>258650</v>
+        <v>279650</v>
       </c>
       <c t="inlineStr" r="L5">
         <is>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c t="n" r="K8">
-        <v>98345</v>
+        <v>98305</v>
       </c>
       <c t="inlineStr" r="L8">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c t="n" r="K23">
-        <v>1804532</v>
+        <v>1804032</v>
       </c>
       <c t="inlineStr" r="L23">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c t="n" r="K25">
-        <v>210163</v>
+        <v>209885</v>
       </c>
       <c t="inlineStr" r="L25">
         <is>
@@ -2611,6 +2611,240 @@
         </is>
       </c>
       <c t="inlineStr" r="P31">
+        <is>
+          <t>REACH Unaffected</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c t="inlineStr" r="A32">
+        <is>
+          <t>SSW-104-01-G-D</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t>Samtec Inc.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t>SAM1208-04-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D32">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c t="n" r="H32">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t>1,16000</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t>1,16 €</t>
+        </is>
+      </c>
+      <c t="n" r="K32">
+        <v>2898</v>
+      </c>
+      <c t="inlineStr" r="L32">
+        <is>
+          <t>2 Weeks</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M32">
+        <is>
+          <t>CONN RCPT 8POS 0.1 GOLD PCB</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N32">
+        <is>
+          <t>ROHS3 Compliant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O32">
+        <is>
+          <t>Lead free</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P32">
+        <is>
+          <t>REACH Unaffected</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c t="inlineStr" r="A33">
+        <is>
+          <t>TSW-104-17-G-D</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t>Samtec Inc.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t>SAM1060-04-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D33">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c t="n" r="H33">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t>0,90000</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t>0,90 €</t>
+        </is>
+      </c>
+      <c t="n" r="K33">
+        <v>414</v>
+      </c>
+      <c t="inlineStr" r="L33">
+        <is>
+          <t>2 Weeks</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M33">
+        <is>
+          <t>CONN HEADER VERT 8POS 2.54MM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N33">
+        <is>
+          <t>ROHS3 Compliant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O33">
+        <is>
+          <t>Lead free</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P33">
+        <is>
+          <t>REACH Unaffected</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c t="inlineStr" r="A34">
+        <is>
+          <t>PH1-10-UA</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t>Adam Tech</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t>2057-PH1-10-UA-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D34">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c t="n" r="H34">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t>0,16000</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t>0,16 €</t>
+        </is>
+      </c>
+      <c t="n" r="K34">
+        <v>3470</v>
+      </c>
+      <c t="inlineStr" r="L34">
+        <is>
+          <t>9 Weeks</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M34">
+        <is>
+          <t>CONN HEADER VERT 10POS 2.54MM</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N34">
+        <is>
+          <t>ROHS3 Compliant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O34">
+        <is>
+          <t>Lead free</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P34">
         <is>
           <t>REACH Unaffected</t>
         </is>

--- a/Full BOM - DigiKey.xlsx
+++ b/Full BOM - DigiKey.xlsx
@@ -328,7 +328,7 @@
         </is>
       </c>
       <c t="n" r="K2">
-        <v>307398</v>
+        <v>278128</v>
       </c>
       <c t="inlineStr" r="L2">
         <is>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c t="n" r="K4">
-        <v>322396</v>
+        <v>313296</v>
       </c>
       <c t="inlineStr" r="L4">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c t="n" r="K5">
-        <v>279650</v>
+        <v>277384</v>
       </c>
       <c t="inlineStr" r="L5">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c t="n" r="K6">
-        <v>148742</v>
+        <v>148532</v>
       </c>
       <c t="inlineStr" r="L6">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c t="n" r="K7">
-        <v>323307</v>
+        <v>324582</v>
       </c>
       <c t="inlineStr" r="L7">
         <is>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c t="n" r="K8">
-        <v>98305</v>
+        <v>93911</v>
       </c>
       <c t="inlineStr" r="L8">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c t="n" r="K9">
-        <v>2125</v>
+        <v>1936</v>
       </c>
       <c t="inlineStr" r="L9">
         <is>
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c t="n" r="K10">
-        <v>2429</v>
+        <v>2419</v>
       </c>
       <c t="inlineStr" r="L10">
         <is>
-          <t>38 Weeks</t>
+          <t>45 Weeks</t>
         </is>
       </c>
       <c t="inlineStr" r="M10">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c t="n" r="K11">
-        <v>27506</v>
+        <v>27481</v>
       </c>
       <c t="inlineStr" r="L11">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c t="n" r="K13">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="inlineStr" r="L13">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c t="n" r="K14">
-        <v>30352</v>
+        <v>28842</v>
       </c>
       <c t="inlineStr" r="L14">
         <is>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c t="n" r="K16">
-        <v>14155</v>
+        <v>14055</v>
       </c>
       <c t="inlineStr" r="L16">
         <is>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c t="n" r="K17">
-        <v>114298</v>
+        <v>61879</v>
       </c>
       <c t="inlineStr" r="L17">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c t="n" r="K18">
-        <v>2690222</v>
+        <v>2632504</v>
       </c>
       <c t="inlineStr" r="L18">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c t="n" r="K20">
-        <v>446841</v>
+        <v>446839</v>
       </c>
       <c t="inlineStr" r="L20">
         <is>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c t="n" r="K21">
-        <v>408571</v>
+        <v>258469</v>
       </c>
       <c t="inlineStr" r="L21">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c t="n" r="K23">
-        <v>1804032</v>
+        <v>1668876</v>
       </c>
       <c t="inlineStr" r="L23">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c t="n" r="K24">
-        <v>1223329</v>
+        <v>989993</v>
       </c>
       <c t="inlineStr" r="L24">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c t="n" r="K25">
-        <v>209885</v>
+        <v>138681</v>
       </c>
       <c t="inlineStr" r="L25">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c t="n" r="K26">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="L26">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c t="n" r="K27">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c t="inlineStr" r="L27">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c t="n" r="K28">
-        <v>367074</v>
+        <v>353024</v>
       </c>
       <c t="inlineStr" r="L28">
         <is>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c t="n" r="K29">
-        <v>139592</v>
+        <v>138592</v>
       </c>
       <c t="inlineStr" r="L29">
         <is>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c t="n" r="K30">
-        <v>612258</v>
+        <v>602154</v>
       </c>
       <c t="inlineStr" r="L30">
         <is>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c t="n" r="K31">
-        <v>471134</v>
+        <v>460924</v>
       </c>
       <c t="inlineStr" r="L31">
         <is>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c t="n" r="K32">
-        <v>2898</v>
+        <v>2795</v>
       </c>
       <c t="inlineStr" r="L32">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c t="n" r="K34">
-        <v>3470</v>
+        <v>3460</v>
       </c>
       <c t="inlineStr" r="L34">
         <is>
@@ -2845,6 +2845,84 @@
         </is>
       </c>
       <c t="inlineStr" r="P34">
+        <is>
+          <t>REACH Unaffected</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c t="inlineStr" r="A35">
+        <is>
+          <t>P1113CA3</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t>Harwin Inc.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t>952-3571-ND</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D35">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t>Bulk</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c t="n" r="H35">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t>2,17000</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t>2,17 €</t>
+        </is>
+      </c>
+      <c t="n" r="K35">
+        <v>642</v>
+      </c>
+      <c t="inlineStr" r="L35">
+        <is>
+          <t>11 Weeks</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M35">
+        <is>
+          <t>CONTACT SPRING LOADED T/H GOLD</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="N35">
+        <is>
+          <t>ROHS3 Compliant</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="O35">
+        <is>
+          <t>Lead free</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="P35">
         <is>
           <t>REACH Unaffected</t>
         </is>
